--- a/Experiments/experimental_results.xlsx
+++ b/Experiments/experimental_results.xlsx
@@ -43327,8 +43327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ED551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="O4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH30" sqref="AH30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Experiments/experimental_results.xlsx
+++ b/Experiments/experimental_results.xlsx
@@ -26758,7 +26758,7 @@
   <dimension ref="A1:ED508"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
